--- a/USB_2.0_HUB_ V1.2/USB_2.0_HUB_ V1.2_BOM.xlsx
+++ b/USB_2.0_HUB_ V1.2/USB_2.0_HUB_ V1.2_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\拷贝\AD PCB板\工程文件\2.0 USB-HUB项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\hub\USB_2.0_HUB_ V1.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C4F7A4-6CCB-4E1F-8AE1-3664F3EA3682}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9080E6-5889-4135-8CEF-4D5DFC0FC62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3210" windowWidth="28800" windowHeight="11385" xr2:uid="{E3E5B09F-21BD-4826-AC25-D42DF01E4A93}"/>
+    <workbookView xWindow="9240" yWindow="390" windowWidth="28800" windowHeight="14310" xr2:uid="{E3E5B09F-21BD-4826-AC25-D42DF01E4A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FES1.1S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>U1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,6 +344,10 @@
   </si>
   <si>
     <t>R1、R2、R3、R5、R11、R12、R13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE1.1S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +734,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -754,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -768,16 +768,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -785,16 +785,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -802,16 +802,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -819,16 +819,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -836,16 +836,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -853,16 +853,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -870,16 +870,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -887,16 +887,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -904,16 +904,16 @@
     </row>
     <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -938,16 +938,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -955,16 +955,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -973,16 +973,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
@@ -991,16 +991,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1008,16 +1008,16 @@
     </row>
     <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1">
         <v>10</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -1043,16 +1043,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1">
         <v>3</v>
@@ -1061,16 +1061,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1078,16 +1078,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" s="1">
         <v>7</v>
@@ -1095,16 +1095,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1112,16 +1112,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1129,16 +1129,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1146,16 +1146,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -1163,16 +1163,16 @@
     </row>
     <row r="25" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="1">
         <v>9</v>
@@ -1180,16 +1180,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1197,16 +1197,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1214,16 +1214,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
